--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonat\Desktop\Revature\Projects\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonat\Desktop\Revature\Projects\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8632072-F2D8-4FD0-98CB-67EF15419FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F7CB2-B4FC-4FCD-A992-AC204427779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>As a…</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Like a post</t>
   </si>
   <si>
-    <t>Leave a comment</t>
-  </si>
-  <si>
     <t>Follow other users</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Unfollow other users</t>
   </si>
   <si>
-    <t>Delete my comments</t>
-  </si>
-  <si>
     <t>Unlike a post</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>I can share my thoughts with others</t>
   </si>
   <si>
-    <t>I can show my interest in someone's post</t>
-  </si>
-  <si>
     <t>I can undo my mistakes</t>
   </si>
   <si>
@@ -157,13 +148,292 @@
   </si>
   <si>
     <t>I can moderate the website</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Given the user is on login page</t>
+  </si>
+  <si>
+    <t>When the user enters username</t>
+  </si>
+  <si>
+    <t>When the user enters first name</t>
+  </si>
+  <si>
+    <t>When the user enters last name</t>
+  </si>
+  <si>
+    <t>When the user enters password</t>
+  </si>
+  <si>
+    <t>When the user enters email</t>
+  </si>
+  <si>
+    <t>When the user clicks on create register button</t>
+  </si>
+  <si>
+    <t>Then the user will be redirected to the user profile</t>
+  </si>
+  <si>
+    <t>Feature:  As a user I want create account, log in, and log out</t>
+  </si>
+  <si>
+    <t>Scenario: As a user I want to create an account so I can use the web service</t>
+  </si>
+  <si>
+    <t>Scenario: As a user I want to log in so I can access my profile</t>
+  </si>
+  <si>
+    <t>Scenario: As a user I want to log out so my information does not stay visible</t>
+  </si>
+  <si>
+    <t>When the user clicks logout button</t>
+  </si>
+  <si>
+    <t>Then the user will be redirected to the login page</t>
+  </si>
+  <si>
+    <t>Feature: As a user I want to perform various actions to manage posts, likes, and comments</t>
+  </si>
+  <si>
+    <t>Scenario: As a user I want to make a post so I can share my thoughts with others</t>
+  </si>
+  <si>
+    <t>Given the user is on homepage</t>
+  </si>
+  <si>
+    <t>Then the user will be redirected to the homepage</t>
+  </si>
+  <si>
+    <t>When the user enters something</t>
+  </si>
+  <si>
+    <t>When the user clicks post button</t>
+  </si>
+  <si>
+    <t>Then the post will be displayed at the top of the feed</t>
+  </si>
+  <si>
+    <t>Scenario: As a user I want to delete a post so I can undo my mistakes</t>
+  </si>
+  <si>
+    <t>Then the post will be deleted</t>
+  </si>
+  <si>
+    <t>Scenario:As a user I want to like a post so I can show my interest in a post</t>
+  </si>
+  <si>
+    <t>I can show my interest in a post</t>
+  </si>
+  <si>
+    <t>Then the like count will increment by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">needs specific -&gt; </t>
+  </si>
+  <si>
+    <t>Scenario:As a user I want to unlike a post so I can undo my mistakes</t>
+  </si>
+  <si>
+    <t>Then the like count will decrement 1</t>
+  </si>
+  <si>
+    <t>Scenario:As a user I want to leave a comment to a post to share my thoughts about the post</t>
+  </si>
+  <si>
+    <t>Leave a comment to a post</t>
+  </si>
+  <si>
+    <t>When the user clicks comment button</t>
+  </si>
+  <si>
+    <t>When the user clicks login button</t>
+  </si>
+  <si>
+    <t>When the user clicks on register button</t>
+  </si>
+  <si>
+    <t>Scenario:As a user I want to delete my comment from a post</t>
+  </si>
+  <si>
+    <t>Delete my comment from a post</t>
+  </si>
+  <si>
+    <t>When the user clicks unlike comment button</t>
+  </si>
+  <si>
+    <t>When the user enters their comment</t>
+  </si>
+  <si>
+    <t>Then the comment will be deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user clicks on delete comment button </t>
+  </si>
+  <si>
+    <t>When the user clicks delete post button</t>
+  </si>
+  <si>
+    <t>When the user clicks like post button</t>
+  </si>
+  <si>
+    <t>Feature: As an admin I should be able to manage content</t>
+  </si>
+  <si>
+    <t>Scenario: as an admin I should be able to delete accounts so that I cann punish users againts TOS</t>
+  </si>
+  <si>
+    <t>Given the admin is on admin page</t>
+  </si>
+  <si>
+    <t>When the admin clicks on users</t>
+  </si>
+  <si>
+    <t>When the admin clicks delete user</t>
+  </si>
+  <si>
+    <t>Then the user should not appear on the users list</t>
+  </si>
+  <si>
+    <t>Stretch goals</t>
+  </si>
+  <si>
+    <t>See who I followed</t>
+  </si>
+  <si>
+    <t>I can see how many people I followed</t>
+  </si>
+  <si>
+    <t>Scenario: as an admin I should be able to delete posts so that I can moderate posts</t>
+  </si>
+  <si>
+    <t>When the admin clicks on posts</t>
+  </si>
+  <si>
+    <t>When the admin clicks delete posts</t>
+  </si>
+  <si>
+    <t>Then the post should not appear on the post list</t>
+  </si>
+  <si>
+    <t>Scenario: as an admin I should be able to delete comments so that I can moderate comments</t>
+  </si>
+  <si>
+    <t>Given the admin is on the admin page</t>
+  </si>
+  <si>
+    <t>When the admin clicks see comments button</t>
+  </si>
+  <si>
+    <t>When the admin clicks delete comment</t>
+  </si>
+  <si>
+    <t>Then the comment should not appear on the comments list</t>
+  </si>
+  <si>
+    <t>Scenario Outline: as an admin I should be able to log in so that I can moderate the website</t>
+  </si>
+  <si>
+    <t>When the admin enters the username &lt;username&gt;</t>
+  </si>
+  <si>
+    <t>When the admin ennters the password &lt;password&gt;</t>
+  </si>
+  <si>
+    <t>Then the admin should be redirected to the admin page</t>
+  </si>
+  <si>
+    <t>Given the user is on the login page</t>
+  </si>
+  <si>
+    <t>Scenario: as a admin I should be able to log out so that my computer does not store my information</t>
+  </si>
+  <si>
+    <t>When the admin clicks log out button</t>
+  </si>
+  <si>
+    <t>Then the admin should be redirected to the log in page</t>
+  </si>
+  <si>
+    <t>Feature: As an user, I want to view profiles</t>
+  </si>
+  <si>
+    <t>Scenario: As an user, I want to search other users using their name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the user is on any page </t>
+  </si>
+  <si>
+    <t>Given the user is on any page</t>
+  </si>
+  <si>
+    <t>When the user enter other user's first name and last name on the search bar</t>
+  </si>
+  <si>
+    <t>When the user click search button</t>
+  </si>
+  <si>
+    <t>Then the user should see the searched user's name and a link to their profile</t>
+  </si>
+  <si>
+    <t>Scenario: As an user, I want to view my profile</t>
+  </si>
+  <si>
+    <t>Given the user is on their homepage</t>
+  </si>
+  <si>
+    <t>When the user click on the My Profile link</t>
+  </si>
+  <si>
+    <t>Then the user should be redirect to their profile page</t>
+  </si>
+  <si>
+    <t>Scenario: As an user, I want to view other profiles</t>
+  </si>
+  <si>
+    <t>When the user click on the search button</t>
+  </si>
+  <si>
+    <t>When the user see the searched user's name and a link to their profile</t>
+  </si>
+  <si>
+    <t>When the user click on the link</t>
+  </si>
+  <si>
+    <t>Then the user should be redirected to the searched user's profile page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature: As an user, I want to manage my follows so that I know whose profile I am interested in </t>
+  </si>
+  <si>
+    <t>Scenario: As an user, I want to follow other users</t>
+  </si>
+  <si>
+    <t>Given the user is on the other user's profile page</t>
+  </si>
+  <si>
+    <t>When the user click on the follow button</t>
+  </si>
+  <si>
+    <t>Then the user should now followed and the follow button should change to unfollow</t>
+  </si>
+  <si>
+    <t>Scenario: As an user, I want to unfollow other users</t>
+  </si>
+  <si>
+    <t>When the user click on the unfollow button</t>
+  </si>
+  <si>
+    <t>Then the user should now unfollowed and the unfollow button should change to follow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +441,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +489,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -206,30 +570,201 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5C5390F4-19A9-4A32-9727-D1CB013B1FD4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,313 +1042,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="E16" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="E17" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="E21" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="E24" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="E25" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="E26" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="E30" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="E31" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="E32" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="E33" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="E36" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="E37" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="E41" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="E42" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="E43" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="E46" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="E47" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="E48" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="E51" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="E52" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="E53" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="E54" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="E57" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="E58" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="C59" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="E63" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="E64" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="E65" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="C66" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="E69" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="E70" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="E71" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="E74" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="E75" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="E76" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="E77" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="E78" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="26"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="E82" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="E83" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="E84" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="E87" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="E88" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="E89" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="E93" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="E94" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="E95" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="C96" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C98" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="E99" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="E100" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="E101" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="C102" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="E105" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="E106" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="E107" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="E108" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="C109" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="E112" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="E113" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="E114" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="E115" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E117" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="E118" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="E119" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="E120" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="31"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B130" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B131" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B132" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B133" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A61:E61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>